--- a/Fiorella_Data_Excel/Ventas_Nacional.xlsx
+++ b/Fiorella_Data_Excel/Ventas_Nacional.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo Lopez\Documents\GitHub\desafio1_DMD_EduardoLopez\Fiorella_Data_Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD3AD20-C98D-46A8-96AF-75BF9A642D0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,22 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>Producto 1</t>
+  </si>
+  <si>
+    <t>Producto2</t>
+  </si>
+  <si>
+    <t>CantidadCompras</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,13 +350,1579 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>Claveles</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>Liston</t>
+        </is>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>463</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>Claveles</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>Globos</t>
+        </is>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>410</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>Claveles</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>Rosas</t>
+        </is>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>443</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>Macetas</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>Tarjetas</t>
+        </is>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>394</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>Claveles</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>Lirios</t>
+        </is>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>386</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>Aurora</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>Claveles</t>
+        </is>
+      </c>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>368</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>Liston</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>Tierra</t>
+        </is>
+      </c>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>468</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>Lirios</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>Liston</t>
+        </is>
+      </c>
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>477</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>Orquideas</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>Tierra</t>
+        </is>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>377</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>Globos</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>Tulipanes</t>
+        </is>
+      </c>
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>427</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>Girasoles</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>Tierra</t>
+        </is>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>365</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>Claveles</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t>Tierra</t>
+        </is>
+      </c>
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>352</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>Girasoles</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t>Orquideas</t>
+        </is>
+      </c>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>411</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>Rosas</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t>Tarjetas</t>
+        </is>
+      </c>
+      <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t>483</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>Carmesi</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="inlineStr">
+        <is>
+          <t>Hortensia</t>
+        </is>
+      </c>
+      <c r="C16" s="0" t="inlineStr">
+        <is>
+          <t>362</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>Aurora</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="inlineStr">
+        <is>
+          <t>Tierra</t>
+        </is>
+      </c>
+      <c r="C17" s="0" t="inlineStr">
+        <is>
+          <t>384</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>Carmesi</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="inlineStr">
+        <is>
+          <t>Tierra</t>
+        </is>
+      </c>
+      <c r="C18" s="0" t="inlineStr">
+        <is>
+          <t>361</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>Orquideas</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="inlineStr">
+        <is>
+          <t>Rosas</t>
+        </is>
+      </c>
+      <c r="C19" s="0" t="inlineStr">
+        <is>
+          <t>471</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>Claveles</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="inlineStr">
+        <is>
+          <t>Tulipanes</t>
+        </is>
+      </c>
+      <c r="C20" s="0" t="inlineStr">
+        <is>
+          <t>354</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>Globos</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="inlineStr">
+        <is>
+          <t>Macetas</t>
+        </is>
+      </c>
+      <c r="C21" s="0" t="inlineStr">
+        <is>
+          <t>465</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>Lirios</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="inlineStr">
+        <is>
+          <t>Tierra</t>
+        </is>
+      </c>
+      <c r="C22" s="0" t="inlineStr">
+        <is>
+          <t>383</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>Liston</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="inlineStr">
+        <is>
+          <t>Tulipanes</t>
+        </is>
+      </c>
+      <c r="C23" s="0" t="inlineStr">
+        <is>
+          <t>465</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>Girasoles</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="inlineStr">
+        <is>
+          <t>Lirios</t>
+        </is>
+      </c>
+      <c r="C24" s="0" t="inlineStr">
+        <is>
+          <t>377</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>Aurora</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="inlineStr">
+        <is>
+          <t>Globos</t>
+        </is>
+      </c>
+      <c r="C25" s="0" t="inlineStr">
+        <is>
+          <t>453</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>Carmesi</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="inlineStr">
+        <is>
+          <t>Claveles</t>
+        </is>
+      </c>
+      <c r="C26" s="0" t="inlineStr">
+        <is>
+          <t>338</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>Lirios</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="inlineStr">
+        <is>
+          <t>Orquideas</t>
+        </is>
+      </c>
+      <c r="C27" s="0" t="inlineStr">
+        <is>
+          <t>398</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>Liston</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="inlineStr">
+        <is>
+          <t>Orquideas</t>
+        </is>
+      </c>
+      <c r="C28" s="0" t="inlineStr">
+        <is>
+          <t>507</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>Rosas</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="inlineStr">
+        <is>
+          <t>Tulipanes</t>
+        </is>
+      </c>
+      <c r="C29" s="0" t="inlineStr">
+        <is>
+          <t>461</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>Girasoles</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="inlineStr">
+        <is>
+          <t>Liston</t>
+        </is>
+      </c>
+      <c r="C30" s="0" t="inlineStr">
+        <is>
+          <t>501</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>Hortensia</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="inlineStr">
+        <is>
+          <t>Tarjetas</t>
+        </is>
+      </c>
+      <c r="C31" s="0" t="inlineStr">
+        <is>
+          <t>404</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>Aurora</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="inlineStr">
+        <is>
+          <t>Hortensia</t>
+        </is>
+      </c>
+      <c r="C32" s="0" t="inlineStr">
+        <is>
+          <t>413</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>Girasoles</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="inlineStr">
+        <is>
+          <t>Tulipanes</t>
+        </is>
+      </c>
+      <c r="C33" s="0" t="inlineStr">
+        <is>
+          <t>376</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>Girasoles</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="inlineStr">
+        <is>
+          <t>Rosas</t>
+        </is>
+      </c>
+      <c r="C34" s="0" t="inlineStr">
+        <is>
+          <t>476</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>Carmesi</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="inlineStr">
+        <is>
+          <t>Liston</t>
+        </is>
+      </c>
+      <c r="C35" s="0" t="inlineStr">
+        <is>
+          <t>454</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="36">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>Orquideas</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="inlineStr">
+        <is>
+          <t>Tulipanes</t>
+        </is>
+      </c>
+      <c r="C36" s="0" t="inlineStr">
+        <is>
+          <t>403</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>Liston</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="inlineStr">
+        <is>
+          <t>Rosas</t>
+        </is>
+      </c>
+      <c r="C37" s="0" t="inlineStr">
+        <is>
+          <t>692</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>Globos</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="inlineStr">
+        <is>
+          <t>Tarjetas</t>
+        </is>
+      </c>
+      <c r="C38" s="0" t="inlineStr">
+        <is>
+          <t>437</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>Aurora</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="inlineStr">
+        <is>
+          <t>Carmesi</t>
+        </is>
+      </c>
+      <c r="C39" s="0" t="inlineStr">
+        <is>
+          <t>369</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>Globos</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="inlineStr">
+        <is>
+          <t>Hortensia</t>
+        </is>
+      </c>
+      <c r="C40" s="0" t="inlineStr">
+        <is>
+          <t>458</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="41">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>Hortensia</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="inlineStr">
+        <is>
+          <t>Macetas</t>
+        </is>
+      </c>
+      <c r="C41" s="0" t="inlineStr">
+        <is>
+          <t>396</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="42">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>Claveles</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="inlineStr">
+        <is>
+          <t>Orquideas</t>
+        </is>
+      </c>
+      <c r="C42" s="0" t="inlineStr">
+        <is>
+          <t>364</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="43">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>Carmesi</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="inlineStr">
+        <is>
+          <t>Globos</t>
+        </is>
+      </c>
+      <c r="C43" s="0" t="inlineStr">
+        <is>
+          <t>427</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="44">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>Aurora</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="inlineStr">
+        <is>
+          <t>Girasoles</t>
+        </is>
+      </c>
+      <c r="C44" s="0" t="inlineStr">
+        <is>
+          <t>408</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="45">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>Carmesi</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="inlineStr">
+        <is>
+          <t>Tulipanes</t>
+        </is>
+      </c>
+      <c r="C45" s="0" t="inlineStr">
+        <is>
+          <t>377</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="46">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>Liston</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="inlineStr">
+        <is>
+          <t>Macetas</t>
+        </is>
+      </c>
+      <c r="C46" s="0" t="inlineStr">
+        <is>
+          <t>504</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="47">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>Aurora</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="inlineStr">
+        <is>
+          <t>Tulipanes</t>
+        </is>
+      </c>
+      <c r="C47" s="0" t="inlineStr">
+        <is>
+          <t>385</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="48">
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t>Carmesi</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="inlineStr">
+        <is>
+          <t>Rosas</t>
+        </is>
+      </c>
+      <c r="C48" s="0" t="inlineStr">
+        <is>
+          <t>452</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="49">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t>Lirios</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="inlineStr">
+        <is>
+          <t>Tarjetas</t>
+        </is>
+      </c>
+      <c r="C49" s="0" t="inlineStr">
+        <is>
+          <t>390</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="50">
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t>Carmesi</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="inlineStr">
+        <is>
+          <t>Lirios</t>
+        </is>
+      </c>
+      <c r="C50" s="0" t="inlineStr">
+        <is>
+          <t>392</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="51">
+      <c r="A51" s="0" t="inlineStr">
+        <is>
+          <t>Claveles</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="inlineStr">
+        <is>
+          <t>Girasoles</t>
+        </is>
+      </c>
+      <c r="C51" s="0" t="inlineStr">
+        <is>
+          <t>384</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="52">
+      <c r="A52" s="0" t="inlineStr">
+        <is>
+          <t>Tarjetas</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="inlineStr">
+        <is>
+          <t>Tierra</t>
+        </is>
+      </c>
+      <c r="C52" s="0" t="inlineStr">
+        <is>
+          <t>351</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="53">
+      <c r="A53" s="0" t="inlineStr">
+        <is>
+          <t>Globos</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="inlineStr">
+        <is>
+          <t>Orquideas</t>
+        </is>
+      </c>
+      <c r="C53" s="0" t="inlineStr">
+        <is>
+          <t>464</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="54">
+      <c r="A54" s="0" t="inlineStr">
+        <is>
+          <t>Lirios</t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="inlineStr">
+        <is>
+          <t>Tulipanes</t>
+        </is>
+      </c>
+      <c r="C54" s="0" t="inlineStr">
+        <is>
+          <t>401</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="55">
+      <c r="A55" s="0" t="inlineStr">
+        <is>
+          <t>Liston</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="inlineStr">
+        <is>
+          <t>Tarjetas</t>
+        </is>
+      </c>
+      <c r="C55" s="0" t="inlineStr">
+        <is>
+          <t>481</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="56">
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t>Hortensia</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="inlineStr">
+        <is>
+          <t>Liston</t>
+        </is>
+      </c>
+      <c r="C56" s="0" t="inlineStr">
+        <is>
+          <t>480</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="57">
+      <c r="A57" s="0" t="inlineStr">
+        <is>
+          <t>Macetas</t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="inlineStr">
+        <is>
+          <t>Tierra</t>
+        </is>
+      </c>
+      <c r="C57" s="0" t="inlineStr">
+        <is>
+          <t>369</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="58">
+      <c r="A58" s="0" t="inlineStr">
+        <is>
+          <t>Aurora</t>
+        </is>
+      </c>
+      <c r="B58" s="0" t="inlineStr">
+        <is>
+          <t>Liston</t>
+        </is>
+      </c>
+      <c r="C58" s="0" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="59">
+      <c r="A59" s="0" t="inlineStr">
+        <is>
+          <t>Lirios</t>
+        </is>
+      </c>
+      <c r="B59" s="0" t="inlineStr">
+        <is>
+          <t>Macetas</t>
+        </is>
+      </c>
+      <c r="C59" s="0" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="60">
+      <c r="A60" s="0" t="inlineStr">
+        <is>
+          <t>Aurora</t>
+        </is>
+      </c>
+      <c r="B60" s="0" t="inlineStr">
+        <is>
+          <t>Rosas</t>
+        </is>
+      </c>
+      <c r="C60" s="0" t="inlineStr">
+        <is>
+          <t>478</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="61">
+      <c r="A61" s="0" t="inlineStr">
+        <is>
+          <t>Hortensia</t>
+        </is>
+      </c>
+      <c r="B61" s="0" t="inlineStr">
+        <is>
+          <t>Tierra</t>
+        </is>
+      </c>
+      <c r="C61" s="0" t="inlineStr">
+        <is>
+          <t>358</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="62">
+      <c r="A62" s="0" t="inlineStr">
+        <is>
+          <t>Aurora</t>
+        </is>
+      </c>
+      <c r="B62" s="0" t="inlineStr">
+        <is>
+          <t>Orquideas</t>
+        </is>
+      </c>
+      <c r="C62" s="0" t="inlineStr">
+        <is>
+          <t>404</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="63">
+      <c r="A63" s="0" t="inlineStr">
+        <is>
+          <t>Aurora</t>
+        </is>
+      </c>
+      <c r="B63" s="0" t="inlineStr">
+        <is>
+          <t>Lirios</t>
+        </is>
+      </c>
+      <c r="C63" s="0" t="inlineStr">
+        <is>
+          <t>401</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="64">
+      <c r="A64" s="0" t="inlineStr">
+        <is>
+          <t>Aurora</t>
+        </is>
+      </c>
+      <c r="B64" s="0" t="inlineStr">
+        <is>
+          <t>Macetas</t>
+        </is>
+      </c>
+      <c r="C64" s="0" t="inlineStr">
+        <is>
+          <t>392</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="65">
+      <c r="A65" s="0" t="inlineStr">
+        <is>
+          <t>Globos</t>
+        </is>
+      </c>
+      <c r="B65" s="0" t="inlineStr">
+        <is>
+          <t>Tierra</t>
+        </is>
+      </c>
+      <c r="C65" s="0" t="inlineStr">
+        <is>
+          <t>427</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="66">
+      <c r="A66" s="0" t="inlineStr">
+        <is>
+          <t>Macetas</t>
+        </is>
+      </c>
+      <c r="B66" s="0" t="inlineStr">
+        <is>
+          <t>Orquideas</t>
+        </is>
+      </c>
+      <c r="C66" s="0" t="inlineStr">
+        <is>
+          <t>393</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="67">
+      <c r="A67" s="0" t="inlineStr">
+        <is>
+          <t>Claveles</t>
+        </is>
+      </c>
+      <c r="B67" s="0" t="inlineStr">
+        <is>
+          <t>Tarjetas</t>
+        </is>
+      </c>
+      <c r="C67" s="0" t="inlineStr">
+        <is>
+          <t>367</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="68">
+      <c r="A68" s="0" t="inlineStr">
+        <is>
+          <t>Globos</t>
+        </is>
+      </c>
+      <c r="B68" s="0" t="inlineStr">
+        <is>
+          <t>Rosas</t>
+        </is>
+      </c>
+      <c r="C68" s="0" t="inlineStr">
+        <is>
+          <t>613</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="69">
+      <c r="A69" s="0" t="inlineStr">
+        <is>
+          <t>Hortensia</t>
+        </is>
+      </c>
+      <c r="B69" s="0" t="inlineStr">
+        <is>
+          <t>Orquideas</t>
+        </is>
+      </c>
+      <c r="C69" s="0" t="inlineStr">
+        <is>
+          <t>397</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="70">
+      <c r="A70" s="0" t="inlineStr">
+        <is>
+          <t>Hortensia</t>
+        </is>
+      </c>
+      <c r="B70" s="0" t="inlineStr">
+        <is>
+          <t>Lirios</t>
+        </is>
+      </c>
+      <c r="C70" s="0" t="inlineStr">
+        <is>
+          <t>392</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="71">
+      <c r="A71" s="0" t="inlineStr">
+        <is>
+          <t>Tierra</t>
+        </is>
+      </c>
+      <c r="B71" s="0" t="inlineStr">
+        <is>
+          <t>Tulipanes</t>
+        </is>
+      </c>
+      <c r="C71" s="0" t="inlineStr">
+        <is>
+          <t>384</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="72">
+      <c r="A72" s="0" t="inlineStr">
+        <is>
+          <t>Girasoles</t>
+        </is>
+      </c>
+      <c r="B72" s="0" t="inlineStr">
+        <is>
+          <t>Macetas</t>
+        </is>
+      </c>
+      <c r="C72" s="0" t="inlineStr">
+        <is>
+          <t>404</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="73">
+      <c r="A73" s="0" t="inlineStr">
+        <is>
+          <t>Claveles</t>
+        </is>
+      </c>
+      <c r="B73" s="0" t="inlineStr">
+        <is>
+          <t>Macetas</t>
+        </is>
+      </c>
+      <c r="C73" s="0" t="inlineStr">
+        <is>
+          <t>362</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="74">
+      <c r="A74" s="0" t="inlineStr">
+        <is>
+          <t>Carmesi</t>
+        </is>
+      </c>
+      <c r="B74" s="0" t="inlineStr">
+        <is>
+          <t>Orquideas</t>
+        </is>
+      </c>
+      <c r="C74" s="0" t="inlineStr">
+        <is>
+          <t>410</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="75">
+      <c r="A75" s="0" t="inlineStr">
+        <is>
+          <t>Carmesi</t>
+        </is>
+      </c>
+      <c r="B75" s="0" t="inlineStr">
+        <is>
+          <t>Macetas</t>
+        </is>
+      </c>
+      <c r="C75" s="0" t="inlineStr">
+        <is>
+          <t>365</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="76">
+      <c r="A76" s="0" t="inlineStr">
+        <is>
+          <t>Hortensia</t>
+        </is>
+      </c>
+      <c r="B76" s="0" t="inlineStr">
+        <is>
+          <t>Rosas</t>
+        </is>
+      </c>
+      <c r="C76" s="0" t="inlineStr">
+        <is>
+          <t>467</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="77">
+      <c r="A77" s="0" t="inlineStr">
+        <is>
+          <t>Aurora</t>
+        </is>
+      </c>
+      <c r="B77" s="0" t="inlineStr">
+        <is>
+          <t>Tarjetas</t>
+        </is>
+      </c>
+      <c r="C77" s="0" t="inlineStr">
+        <is>
+          <t>420</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="78">
+      <c r="A78" s="0" t="inlineStr">
+        <is>
+          <t>Hortensia</t>
+        </is>
+      </c>
+      <c r="B78" s="0" t="inlineStr">
+        <is>
+          <t>Tulipanes</t>
+        </is>
+      </c>
+      <c r="C78" s="0" t="inlineStr">
+        <is>
+          <t>385</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="79">
+      <c r="A79" s="0" t="inlineStr">
+        <is>
+          <t>Globos</t>
+        </is>
+      </c>
+      <c r="B79" s="0" t="inlineStr">
+        <is>
+          <t>Liston</t>
+        </is>
+      </c>
+      <c r="C79" s="0" t="inlineStr">
+        <is>
+          <t>665</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="80">
+      <c r="A80" s="0" t="inlineStr">
+        <is>
+          <t>Globos</t>
+        </is>
+      </c>
+      <c r="B80" s="0" t="inlineStr">
+        <is>
+          <t>Lirios</t>
+        </is>
+      </c>
+      <c r="C80" s="0" t="inlineStr">
+        <is>
+          <t>448</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="81">
+      <c r="A81" s="0" t="inlineStr">
+        <is>
+          <t>Girasoles</t>
+        </is>
+      </c>
+      <c r="B81" s="0" t="inlineStr">
+        <is>
+          <t>Tarjetas</t>
+        </is>
+      </c>
+      <c r="C81" s="0" t="inlineStr">
+        <is>
+          <t>407</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="82">
+      <c r="A82" s="0" t="inlineStr">
+        <is>
+          <t>Lirios</t>
+        </is>
+      </c>
+      <c r="B82" s="0" t="inlineStr">
+        <is>
+          <t>Rosas</t>
+        </is>
+      </c>
+      <c r="C82" s="0" t="inlineStr">
+        <is>
+          <t>474</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="83">
+      <c r="A83" s="0" t="inlineStr">
+        <is>
+          <t>Rosas</t>
+        </is>
+      </c>
+      <c r="B83" s="0" t="inlineStr">
+        <is>
+          <t>Tierra</t>
+        </is>
+      </c>
+      <c r="C83" s="0" t="inlineStr">
+        <is>
+          <t>452</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="84">
+      <c r="A84" s="0" t="inlineStr">
+        <is>
+          <t>Carmesi</t>
+        </is>
+      </c>
+      <c r="B84" s="0" t="inlineStr">
+        <is>
+          <t>Girasoles</t>
+        </is>
+      </c>
+      <c r="C84" s="0" t="inlineStr">
+        <is>
+          <t>374</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="85">
+      <c r="A85" s="0" t="inlineStr">
+        <is>
+          <t>Girasoles</t>
+        </is>
+      </c>
+      <c r="B85" s="0" t="inlineStr">
+        <is>
+          <t>Globos</t>
+        </is>
+      </c>
+      <c r="C85" s="0" t="inlineStr">
+        <is>
+          <t>457</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="86">
+      <c r="A86" s="0" t="inlineStr">
+        <is>
+          <t>Tarjetas</t>
+        </is>
+      </c>
+      <c r="B86" s="0" t="inlineStr">
+        <is>
+          <t>Tulipanes</t>
+        </is>
+      </c>
+      <c r="C86" s="0" t="inlineStr">
+        <is>
+          <t>359</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="87">
+      <c r="A87" s="0" t="inlineStr">
+        <is>
+          <t>Orquideas</t>
+        </is>
+      </c>
+      <c r="B87" s="0" t="inlineStr">
+        <is>
+          <t>Tarjetas</t>
+        </is>
+      </c>
+      <c r="C87" s="0" t="inlineStr">
+        <is>
+          <t>404</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="88">
+      <c r="A88" s="0" t="inlineStr">
+        <is>
+          <t>Macetas</t>
+        </is>
+      </c>
+      <c r="B88" s="0" t="inlineStr">
+        <is>
+          <t>Tulipanes</t>
+        </is>
+      </c>
+      <c r="C88" s="0" t="inlineStr">
+        <is>
+          <t>386</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="89">
+      <c r="A89" s="0" t="inlineStr">
+        <is>
+          <t>Girasoles</t>
+        </is>
+      </c>
+      <c r="B89" s="0" t="inlineStr">
+        <is>
+          <t>Hortensia</t>
+        </is>
+      </c>
+      <c r="C89" s="0" t="inlineStr">
+        <is>
+          <t>397</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="90">
+      <c r="A90" s="0" t="inlineStr">
+        <is>
+          <t>Macetas</t>
+        </is>
+      </c>
+      <c r="B90" s="0" t="inlineStr">
+        <is>
+          <t>Rosas</t>
+        </is>
+      </c>
+      <c r="C90" s="0" t="inlineStr">
+        <is>
+          <t>497</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="91">
+      <c r="A91" s="0" t="inlineStr">
+        <is>
+          <t>Claveles</t>
+        </is>
+      </c>
+      <c r="B91" s="0" t="inlineStr">
+        <is>
+          <t>Hortensia</t>
+        </is>
+      </c>
+      <c r="C91" s="0" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="92">
+      <c r="A92" s="0" t="inlineStr">
+        <is>
+          <t>Carmesi</t>
+        </is>
+      </c>
+      <c r="B92" s="0" t="inlineStr">
+        <is>
+          <t>Tarjetas</t>
+        </is>
+      </c>
+      <c r="C92" s="0" t="inlineStr">
+        <is>
+          <t>376</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Fiorella_Data_Excel/Ventas_Nacional.xlsx
+++ b/Fiorella_Data_Excel/Ventas_Nacional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo Lopez\Documents\GitHub\desafio1_DMD_EduardoLopez\Fiorella_Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD3AD20-C98D-46A8-96AF-75BF9A642D0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3E6160-2B1D-490F-88B9-1719FA1FA22D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -354,7 +354,7 @@
   <dimension ref="A1:C92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
